--- a/Win32/Binaries/Table/rhymeskill.xlsx
+++ b/Win32/Binaries/Table/rhymeskill.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,39 +118,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大飞第一个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大飞第二个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大飞第三个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白糖第一个</t>
-  </si>
-  <si>
-    <t>白糖第二个</t>
-  </si>
-  <si>
-    <t>白糖第三个</t>
-  </si>
-  <si>
     <t>activeNeedLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>image/icon_skill/Wxiangqi.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300;200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>skillPosition1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,19 +153,97 @@
     <t>象棋乱打</t>
   </si>
   <si>
-    <t>武崧将棍棒化为象棋，使用棋子对全体敌人进行攻击。</t>
-  </si>
-  <si>
     <t>镜花水月</t>
   </si>
   <si>
-    <t>武崧化为5个分身，对全体敌人造成伤害。</t>
-  </si>
-  <si>
     <t>风入松</t>
   </si>
   <si>
-    <t>使用韵的力量，召唤猛虎，对全体敌人造成伤害。</t>
+    <t>#skill_2010.png</t>
+  </si>
+  <si>
+    <t>#skill_2011.png</t>
+  </si>
+  <si>
+    <t>#skill_1009.png</t>
+  </si>
+  <si>
+    <t>#skill_1010.png</t>
+  </si>
+  <si>
+    <t>#skill_1011.png</t>
+  </si>
+  <si>
+    <t>化身猛虎冲向对方，并对沿途的对方造成伤害。</t>
+  </si>
+  <si>
+    <t>化身千万，给予全场对方猛烈打击。</t>
+  </si>
+  <si>
+    <t>将韵力化为会爆炸的棋子，轰击全场区域。</t>
+  </si>
+  <si>
+    <t>千斤鼎</t>
+  </si>
+  <si>
+    <t>巴蛇乱舞</t>
+  </si>
+  <si>
+    <t>猛烈撼动大地，并对范围内所有对手造成伤害。</t>
+  </si>
+  <si>
+    <t>召唤巴蛇喷射毒物，让所有对手中毒并造成伤害。</t>
+  </si>
+  <si>
+    <t>召唤巴蛇遮蔽天日，一瞬间对范围内所有对手造成大量伤害。</t>
+  </si>
+  <si>
+    <t>宇宙锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韵之觉醒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化身为守护神姿态，进行疯狂攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill_3009.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill_3010.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill_3011.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#skill_2009.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫雾毒蛇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>546;208</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将韵力凝聚在法杖顶端，幻化成新的武器，攻击敌人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出金龙造成大量伤害。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,9 +318,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -617,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -653,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -674,7 +724,7 @@
         <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
         <v>2</v>
@@ -695,7 +745,7 @@
         <v>2</v>
       </c>
       <c r="U1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="V1" t="s">
         <v>2</v>
@@ -709,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -724,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -745,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
         <v>15</v>
@@ -766,7 +816,7 @@
         <v>20</v>
       </c>
       <c r="U2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="V2" t="s">
         <v>21</v>
@@ -780,43 +830,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>1009</v>
       </c>
       <c r="I3">
         <v>-1</v>
       </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O3">
         <v>2009</v>
@@ -825,22 +875,22 @@
         <v>-1</v>
       </c>
       <c r="Q3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>3009</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -851,43 +901,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>1010</v>
       </c>
       <c r="I4">
         <v>-1</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
-        <v>42</v>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O4">
         <v>2010</v>
@@ -896,22 +946,22 @@
         <v>-1</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>3010</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -922,43 +972,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>1011</v>
       </c>
       <c r="I5">
         <v>-1</v>
       </c>
-      <c r="J5" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" t="s">
-        <v>40</v>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O5">
         <v>2011</v>
@@ -967,22 +1017,22 @@
         <v>-1</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="R5" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="V5">
-        <v>7</v>
+        <v>3011</v>
       </c>
       <c r="W5">
         <v>-1</v>
